--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM010労働保険事業所の登録.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM010労働保険事業所の登録.xlsx
@@ -384,7 +384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -535,21 +535,6 @@
         <color theme="6"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="6"/>
-      </left>
-      <right style="thin">
-        <color theme="6"/>
-      </right>
-      <top style="thick">
-        <color theme="6"/>
-      </top>
       <bottom style="thin">
         <color theme="6"/>
       </bottom>
@@ -744,6 +729,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6"/>
+      </right>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -752,7 +776,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -772,10 +796,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -784,10 +805,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -796,25 +814,25 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -823,23 +841,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -44996,40 +45026,40 @@
   <sheetData>
     <row r="1" spans="2:8" ht="12.75" thickBot="1"/>
     <row r="2" spans="2:8" ht="24.6" customHeight="1" thickTop="1">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="18" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="16" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="2:8" ht="24.6" customHeight="1" thickBot="1">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="19" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="17" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="2:8" ht="24.6" customHeight="1" thickTop="1">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -45037,8 +45067,8 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="2:8" ht="24.6" customHeight="1" thickBot="1">
-      <c r="B5" s="16"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -45046,76 +45076,76 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="2:8" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="20"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="2:8" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B7" s="12"/>
-      <c r="C7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="20"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="2:8" ht="98.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
     </row>
     <row r="9" spans="2:8" ht="13.5" thickTop="1" thickBot="1"/>
     <row r="10" spans="2:8" ht="24.6" customHeight="1" thickTop="1">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="18" t="s">
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="16" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="2:8" ht="24.6" customHeight="1" thickBot="1">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="17" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="19" t="s">
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="17" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" ht="24.6" customHeight="1" thickTop="1">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -45123,8 +45153,8 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="2:8" ht="24.6" customHeight="1" thickBot="1">
-      <c r="B13" s="16"/>
-      <c r="C13" s="10"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -45132,45 +45162,49 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="2:8" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="20"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="2:8" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B15" s="12"/>
-      <c r="C15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="20"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="2:8" ht="98.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
     </row>
     <row r="17" ht="12.75" thickTop="1"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="B16:H16"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM010労働保険事業所の登録.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM010労働保険事業所の登録.xlsx
@@ -859,16 +859,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -45033,8 +45033,8 @@
       <c r="D2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="16" t="s">
         <v>16</v>
       </c>
@@ -45048,8 +45048,8 @@
       <c r="D3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="17" t="s">
         <v>17</v>
       </c>
@@ -45119,8 +45119,8 @@
       <c r="D10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="16" t="s">
         <v>10</v>
       </c>
@@ -45134,8 +45134,8 @@
       <c r="D11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
       <c r="G11" s="17" t="s">
         <v>2</v>
       </c>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM010労働保険事業所の登録.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM010労働保険事業所の登録.xlsx
@@ -384,7 +384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -413,21 +413,6 @@
       </left>
       <right style="thick">
         <color theme="6"/>
-      </right>
-      <top style="thick">
-        <color theme="6"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
       </right>
       <top style="thick">
         <color theme="6"/>
@@ -486,21 +471,6 @@
       <left style="thin">
         <color theme="0"/>
       </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="6"/>
-      </top>
-      <bottom style="thick">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
       <right style="thick">
         <color theme="6"/>
       </right>
@@ -523,19 +493,6 @@
         <color theme="6"/>
       </top>
       <bottom style="thick">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color theme="6"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color theme="6"/>
       </bottom>
       <diagonal/>
@@ -612,43 +569,6 @@
         <color theme="6"/>
       </top>
       <bottom style="thick">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="6"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="6"/>
-      </top>
-      <bottom style="thick">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color theme="6"/>
       </bottom>
       <diagonal/>
@@ -768,6 +688,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -776,7 +718,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -784,92 +726,83 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1164,7 +1097,7 @@
       <sheetName val="master"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -1178,7 +1111,7 @@
       <sheetName val="１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6491,17 +6424,17 @@
       <sheetName val="内示書"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8282,10 +8215,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8703,13 +8636,13 @@
             <v>保守委託</v>
           </cell>
           <cell r="AK4" t="str">
-            <v>保守支援</v>
+            <v>保守委託</v>
           </cell>
           <cell r="AL4" t="str">
             <v>保守料金</v>
           </cell>
           <cell r="AM4" t="str">
-            <v>保守委託</v>
+            <v>保守支援</v>
           </cell>
           <cell r="AN4" t="str">
             <v>保守支援</v>
@@ -44658,7 +44591,7 @@
       <sheetName val="１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -45018,7 +44951,7 @@
     <col min="5" max="5" width="13.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="1" customWidth="1"/>
     <col min="9" max="11" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="10.7109375" style="1"/>
@@ -45026,189 +44959,197 @@
   <sheetData>
     <row r="1" spans="2:8" ht="12.75" thickBot="1"/>
     <row r="2" spans="2:8" ht="24.6" customHeight="1" thickTop="1">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="16" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="24.6" customHeight="1" thickBot="1">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="17" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="2:8" ht="24.6" customHeight="1" thickTop="1">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="2:8" ht="24.6" customHeight="1" thickBot="1">
-      <c r="B5" s="14"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="2:8" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="19" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="2:8" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B7" s="10"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="18"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="2:8" ht="98.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
+    <row r="8" spans="2:8" ht="112.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
     </row>
     <row r="9" spans="2:8" ht="13.5" thickTop="1" thickBot="1"/>
     <row r="10" spans="2:8" ht="24.6" customHeight="1" thickTop="1">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="16" t="s">
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:8" ht="24.6" customHeight="1" thickBot="1">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="17" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="2:8" ht="24.6" customHeight="1" thickTop="1">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="2:8" ht="24.6" customHeight="1" thickBot="1">
-      <c r="B13" s="14"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="14" spans="2:8" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="19" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="18"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="2:8" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B15" s="10"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="18"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="2:8" ht="98.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
+    <row r="16" spans="2:8" ht="110.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
     </row>
     <row r="17" ht="12.75" thickTop="1"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="14">
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;10日通システム株式会社&amp;C&amp;"ＭＳ ゴシック,標準"&amp;16労働保険事業所の登録 &amp;R&amp;"ＭＳ ゴシック,標準"&amp;10&amp;D　&amp;T　
 page&amp;P</oddHeader>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM010労働保険事業所の登録.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM010労働保険事業所の登録.xlsx
@@ -384,72 +384,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="47">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="6"/>
-      </left>
-      <right style="thin">
-        <color theme="6"/>
-      </right>
-      <top style="thick">
-        <color theme="6"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="6"/>
-      </left>
-      <right style="thick">
-        <color theme="6"/>
-      </right>
-      <top style="thick">
-        <color theme="6"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color theme="6"/>
-      </right>
-      <top style="thick">
-        <color theme="6"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="6"/>
-      </left>
-      <right style="thin">
-        <color theme="6"/>
-      </right>
-      <top style="thin">
-        <color theme="6"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -463,21 +403,6 @@
         <color theme="6"/>
       </top>
       <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color theme="6"/>
-      </right>
-      <top style="thin">
-        <color theme="6"/>
-      </top>
-      <bottom style="thick">
         <color theme="6"/>
       </bottom>
       <diagonal/>
@@ -528,31 +453,7 @@
         <color theme="6"/>
       </left>
       <right/>
-      <top style="thick">
-        <color theme="6"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="6"/>
-      </left>
-      <right/>
       <top style="thin">
-        <color theme="6"/>
-      </top>
-      <bottom style="thick">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
         <color theme="6"/>
       </top>
       <bottom style="thick">
@@ -577,43 +478,6 @@
       <left style="thick">
         <color theme="6"/>
       </left>
-      <right style="thin">
-        <color theme="6"/>
-      </right>
-      <top style="thick">
-        <color theme="6"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="6"/>
-      </left>
-      <right style="thin">
-        <color theme="6"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="6"/>
-      </left>
-      <right style="thin">
-        <color theme="6"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="6"/>
-      </left>
       <right style="thick">
         <color theme="6"/>
       </right>
@@ -623,15 +487,6 @@
       <bottom style="thick">
         <color theme="6"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -710,6 +565,401 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thick">
+        <color theme="6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6"/>
+      </left>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thick">
+        <color theme="6"/>
+      </right>
+      <top style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6"/>
+      </right>
+      <top style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6"/>
+      </left>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -718,90 +968,153 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -828,267 +1141,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>86846</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>153147</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="86846" y="153147"/>
-          <a:ext cx="9908801" cy="3074146"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 1017"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>141942</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="角丸四角形 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="134471" y="784413"/>
-          <a:ext cx="10376647" cy="2539999"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 1017"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>141942</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="角丸四角形 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="134471" y="784413"/>
-          <a:ext cx="10376647" cy="2719293"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 1017"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>141942</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="角丸四角形 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="134471" y="141942"/>
-          <a:ext cx="10345270" cy="3148105"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 1017"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -1097,7 +1149,7 @@
       <sheetName val="master"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -1111,7 +1163,7 @@
       <sheetName val="１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6424,17 +6476,17 @@
       <sheetName val="内示書"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8215,10 +8267,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8636,13 +8688,13 @@
             <v>保守委託</v>
           </cell>
           <cell r="AK4" t="str">
-            <v>保守委託</v>
+            <v>保守支援</v>
           </cell>
           <cell r="AL4" t="str">
             <v>保守料金</v>
           </cell>
           <cell r="AM4" t="str">
-            <v>保守支援</v>
+            <v>保守委託</v>
           </cell>
           <cell r="AN4" t="str">
             <v>保守支援</v>
@@ -44591,7 +44643,7 @@
       <sheetName val="１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -44938,9 +44990,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12"/>
   <cols>
@@ -44957,177 +45009,212 @@
     <col min="13" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="12.75" thickBot="1"/>
-    <row r="2" spans="2:8" ht="24.6" customHeight="1" thickTop="1">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="1:9" ht="12.75" thickBot="1">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:9" ht="24.6" customHeight="1" thickTop="1">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="10" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="29"/>
     </row>
-    <row r="3" spans="2:8" ht="24.6" customHeight="1" thickBot="1">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:9" ht="24.6" customHeight="1" thickBot="1">
+      <c r="A3" s="19"/>
+      <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="17"/>
+      <c r="H3" s="35"/>
     </row>
-    <row r="4" spans="2:8" ht="24.6" customHeight="1" thickTop="1">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:9" ht="24.6" customHeight="1" thickTop="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="19"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="30"/>
     </row>
-    <row r="5" spans="2:8" ht="24.6" customHeight="1" thickBot="1">
-      <c r="B5" s="8"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="21"/>
+    <row r="5" spans="1:9" ht="24.6" customHeight="1" thickBot="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="28"/>
     </row>
-    <row r="6" spans="2:8" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="1:9" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="13" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="12"/>
+      <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="2:8" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B7" s="4"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="12"/>
+    <row r="7" spans="1:9" ht="24" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="31"/>
     </row>
-    <row r="8" spans="2:8" ht="112.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
+    <row r="8" spans="1:9" ht="112.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
     </row>
-    <row r="9" spans="2:8" ht="13.5" thickTop="1" thickBot="1"/>
-    <row r="10" spans="2:8" ht="24.6" customHeight="1" thickTop="1">
-      <c r="B10" s="5" t="s">
+    <row r="9" spans="1:9" ht="13.5" thickTop="1" thickBot="1">
+      <c r="B9" s="36"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="41"/>
+    </row>
+    <row r="10" spans="1:9" ht="24.6" customHeight="1" thickTop="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="45"/>
+      <c r="D10" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="10" t="s">
+      <c r="E10" s="43"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="40"/>
     </row>
-    <row r="11" spans="2:8" ht="24.6" customHeight="1" thickBot="1">
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="1:9" ht="24.6" customHeight="1" thickBot="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="11" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="40"/>
     </row>
-    <row r="12" spans="2:8" ht="24.6" customHeight="1" thickTop="1">
-      <c r="B12" s="7" t="s">
+    <row r="12" spans="1:9" ht="24.6" customHeight="1" thickTop="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="19"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="40"/>
     </row>
-    <row r="13" spans="2:8" ht="24.6" customHeight="1" thickBot="1">
-      <c r="B13" s="8"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="21"/>
+    <row r="13" spans="1:9" ht="24.6" customHeight="1" thickBot="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="40"/>
     </row>
-    <row r="14" spans="2:8" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="8" t="s">
+    <row r="14" spans="1:9" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="13" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="12"/>
+      <c r="H14" s="39"/>
     </row>
-    <row r="15" spans="2:8" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B15" s="4"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="12"/>
+    <row r="15" spans="1:9" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="40"/>
     </row>
-    <row r="16" spans="2:8" ht="110.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
+    <row r="16" spans="1:9" ht="110.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="40"/>
     </row>
     <row r="17" ht="12.75" thickTop="1"/>
   </sheetData>
@@ -45154,6 +45241,5 @@
     <oddHeader>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;10日通システム株式会社&amp;C&amp;"ＭＳ ゴシック,標準"&amp;16労働保険事業所の登録 &amp;R&amp;"ＭＳ ゴシック,標準"&amp;10&amp;D　&amp;T　
 page&amp;P</oddHeader>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM010労働保険事業所の登録.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM010労働保険事業所の登録.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="マスタリスト" sheetId="9" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="_Sort" hidden="1">#REF!</definedName>
     <definedName name="_面接から採用に至るまでの情報管理とする_____アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う_">#REF!</definedName>
     <definedName name="・面接から採用に至るまでの情報管理とする。___・アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う。">#REF!</definedName>
-    <definedName name="a">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="a">[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
     <definedName name="AAA">#REF!</definedName>
     <definedName name="AAAA" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
     <definedName name="abc" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
@@ -72,7 +72,7 @@
     <definedName name="Ｌホ">#REF!</definedName>
     <definedName name="ＭＨ">#REF!</definedName>
     <definedName name="Ｍホ">#REF!</definedName>
-    <definedName name="ｎ">'[6]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="ｎ">[6]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
     <definedName name="ＯＨ">#REF!</definedName>
     <definedName name="OPT_NO">[7]!OPT_NO</definedName>
     <definedName name="OPT_YES">[7]!OPT_YES</definedName>
@@ -104,8 +104,8 @@
     <definedName name="クにＨ">#REF!</definedName>
     <definedName name="クニホ">#REF!</definedName>
     <definedName name="クホ">#REF!</definedName>
-    <definedName name="サＨ">'[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="サホ">'[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="サＨ">[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="サホ">[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
     <definedName name="サホ1">#REF!</definedName>
     <definedName name="ツール別見積工数">#REF!</definedName>
     <definedName name="テーブル項目">[11]項目定義書!$A$3:$E$364</definedName>
@@ -325,8 +325,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,12 +362,15 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -968,154 +971,157 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -44992,7 +44998,7 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12"/>
   <cols>
@@ -45010,211 +45016,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" thickBot="1">
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="24.6" customHeight="1" thickTop="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="29"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:9" ht="24.6" customHeight="1" thickBot="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="3" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="35"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:9" ht="24.6" customHeight="1" thickTop="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="30"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:9" ht="24.6" customHeight="1" thickBot="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="28"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:9" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="4" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="32"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="31"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
     </row>
     <row r="8" spans="1:9" ht="112.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="47"/>
     </row>
     <row r="9" spans="1:9" ht="13.5" thickTop="1" thickBot="1">
-      <c r="B9" s="36"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="41"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:9" ht="24.6" customHeight="1" thickTop="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="46" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="37"/>
+      <c r="D10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="26" t="s">
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="42"/>
-      <c r="I10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="24.6" customHeight="1" thickBot="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="3" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="40"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="24.6" customHeight="1" thickTop="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="47" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="40"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="24.6" customHeight="1" thickBot="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="40"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A14" s="19"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="4" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="39"/>
+      <c r="H14" s="43"/>
     </row>
     <row r="15" spans="1:9" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="40"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="110.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="40"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" ht="12.75" thickTop="1"/>
   </sheetData>
